--- a/3. Misc Files/Calculations.xlsx
+++ b/3. Misc Files/Calculations.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7320"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Day 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Start logic 0 half-pulse</t>
   </si>
@@ -160,6 +160,33 @@
   </si>
   <si>
     <t xml:space="preserve">Upper Bound = </t>
+  </si>
+  <si>
+    <t>Total start pulse</t>
+  </si>
+  <si>
+    <t>Total 1 pulse</t>
+  </si>
+  <si>
+    <t>total 0 pulse</t>
+  </si>
+  <si>
+    <t>Total Stop Pulse</t>
+  </si>
+  <si>
+    <t>std_dev</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>lower bound</t>
+  </si>
+  <si>
+    <t>upper bound</t>
+  </si>
+  <si>
+    <t>Total Pulse Lengths</t>
   </si>
 </sst>
 </file>
@@ -337,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -385,9 +412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -414,9 +438,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -435,6 +456,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -740,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,22 +830,22 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="40"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -821,27 +860,27 @@
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="42"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="40"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>9.2180000000000005E-3</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <f>B11/B4</f>
         <v>9218.0000000000018</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>9042</v>
       </c>
       <c r="L11" s="18"/>
@@ -881,17 +920,17 @@
       <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>5.9374999999999999E-4</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <f>B13/B4</f>
         <v>593.75</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>583</v>
       </c>
       <c r="L13" s="18"/>
@@ -931,17 +970,17 @@
       <c r="U14" s="12"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="29">
         <f>B15/B4</f>
         <v>630</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>637</v>
       </c>
       <c r="L15" s="18"/>
@@ -956,7 +995,7 @@
       <c r="U15" s="12"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="7">
@@ -981,17 +1020,17 @@
       <c r="U16" s="12"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>5.8160000000000004E-4</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="30">
         <f>B17/B4</f>
         <v>581.6</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>586</v>
       </c>
       <c r="L17" s="18"/>
@@ -1059,7 +1098,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="18"/>
-      <c r="M21" s="44"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
@@ -1070,18 +1109,18 @@
       <c r="U21" s="18"/>
     </row>
     <row r="22" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="44"/>
+      <c r="M22" s="42"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
@@ -1093,7 +1132,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L23" s="18"/>
-      <c r="M23" s="44"/>
+      <c r="M23" s="42"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
@@ -1104,33 +1143,33 @@
       <c r="U23" s="18"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="27" t="s">
         <v>7</v>
       </c>
       <c r="L24" s="18"/>
-      <c r="M24" s="44"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
@@ -1593,20 +1632,20 @@
       <c r="A41" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1622,13 +1661,13 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
+      <c r="A47" s="24">
         <v>1</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1636,7 +1675,7 @@
       <c r="A48" s="5">
         <v>2</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="35" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1644,13 +1683,13 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
+      <c r="A49" s="24">
         <v>3</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1658,7 +1697,7 @@
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1666,13 +1705,13 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1680,7 +1719,7 @@
       <c r="A52" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -1688,13 +1727,13 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1702,7 +1741,7 @@
       <c r="A54" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -1721,13 +1760,847 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16">
+        <v>9042</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4485</v>
+      </c>
+      <c r="D5" s="2">
+        <v>640</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1612</v>
+      </c>
+      <c r="F5" s="2">
+        <v>640</v>
+      </c>
+      <c r="G5" s="2">
+        <v>490</v>
+      </c>
+      <c r="H5" s="13">
+        <v>586</v>
+      </c>
+      <c r="I5" s="13">
+        <v>39251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="16">
+        <v>9037</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4490</v>
+      </c>
+      <c r="D6" s="2">
+        <v>634</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1614</v>
+      </c>
+      <c r="F6" s="2">
+        <v>634</v>
+      </c>
+      <c r="G6" s="2">
+        <v>493</v>
+      </c>
+      <c r="H6" s="13">
+        <v>587</v>
+      </c>
+      <c r="I6" s="13">
+        <v>39250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16">
+        <v>9037</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4487</v>
+      </c>
+      <c r="D7" s="2">
+        <v>631</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1612</v>
+      </c>
+      <c r="F7" s="2">
+        <v>631</v>
+      </c>
+      <c r="G7" s="2">
+        <v>488</v>
+      </c>
+      <c r="H7" s="13">
+        <v>582</v>
+      </c>
+      <c r="I7" s="13">
+        <v>39254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16">
+        <v>9041</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4489</v>
+      </c>
+      <c r="D8" s="2">
+        <v>637</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1619</v>
+      </c>
+      <c r="F8" s="2">
+        <v>637</v>
+      </c>
+      <c r="G8" s="2">
+        <v>492</v>
+      </c>
+      <c r="H8" s="13">
+        <v>583</v>
+      </c>
+      <c r="I8" s="13">
+        <v>39256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="16">
+        <v>9042</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4490</v>
+      </c>
+      <c r="D9" s="2">
+        <v>634</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1617</v>
+      </c>
+      <c r="F9" s="2">
+        <v>634</v>
+      </c>
+      <c r="G9" s="2">
+        <v>493</v>
+      </c>
+      <c r="H9" s="13">
+        <v>580</v>
+      </c>
+      <c r="I9" s="13">
+        <v>39246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="16">
+        <v>9037</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4486</v>
+      </c>
+      <c r="D10" s="2">
+        <v>640</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1616</v>
+      </c>
+      <c r="F10" s="2">
+        <v>640</v>
+      </c>
+      <c r="G10" s="2">
+        <v>484</v>
+      </c>
+      <c r="H10" s="13">
+        <v>590</v>
+      </c>
+      <c r="I10" s="13">
+        <v>39249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="16">
+        <v>9041</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4491</v>
+      </c>
+      <c r="D11" s="2">
+        <v>633</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1614</v>
+      </c>
+      <c r="F11" s="2">
+        <v>633</v>
+      </c>
+      <c r="G11" s="2">
+        <v>486</v>
+      </c>
+      <c r="H11" s="13">
+        <v>591</v>
+      </c>
+      <c r="I11" s="13">
+        <v>39250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16">
+        <v>9042</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4487</v>
+      </c>
+      <c r="D12" s="2">
+        <v>638</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1615</v>
+      </c>
+      <c r="F12" s="2">
+        <v>638</v>
+      </c>
+      <c r="G12" s="2">
+        <v>492</v>
+      </c>
+      <c r="H12" s="13">
+        <v>589</v>
+      </c>
+      <c r="I12" s="13">
+        <v>39251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="16">
+        <v>9044</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4488</v>
+      </c>
+      <c r="D13" s="2">
+        <v>640</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1612</v>
+      </c>
+      <c r="F13" s="2">
+        <v>640</v>
+      </c>
+      <c r="G13" s="2">
+        <v>493</v>
+      </c>
+      <c r="H13" s="13">
+        <v>588</v>
+      </c>
+      <c r="I13" s="13">
+        <v>39251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="16">
+        <v>9039</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4488</v>
+      </c>
+      <c r="D14" s="2">
+        <v>638</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1614</v>
+      </c>
+      <c r="F14" s="2">
+        <v>638</v>
+      </c>
+      <c r="G14" s="2">
+        <v>488</v>
+      </c>
+      <c r="H14" s="13">
+        <v>587</v>
+      </c>
+      <c r="I14" s="13">
+        <v>39252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ref="B15:C15" si="0">_xlfn.STDEV.S(B5:B14)</f>
+        <v>2.5298221281347035</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9119507199599983</v>
+      </c>
+      <c r="D15" s="2">
+        <f>_xlfn.STDEV.S(D5:D14)</f>
+        <v>3.2744804507314167</v>
+      </c>
+      <c r="E15" s="2">
+        <f>_xlfn.STDEV.S(E5:E14)</f>
+        <v>2.3213980461973533</v>
+      </c>
+      <c r="F15" s="2">
+        <f>_xlfn.STDEV.S(F5:F14)</f>
+        <v>3.2744804507314167</v>
+      </c>
+      <c r="G15" s="2">
+        <f>_xlfn.STDEV.S(G5:G14)</f>
+        <v>3.2472210341220142</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ref="H15:I15" si="1">_xlfn.STDEV.S(H5:H14)</f>
+        <v>3.5916569992135945</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.70801280154532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" ref="B16:C16" si="2">AVERAGE(B5:B14)</f>
+        <v>9040.2000000000007</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="2"/>
+        <v>4488.1000000000004</v>
+      </c>
+      <c r="D16" s="2">
+        <f>AVERAGE(D5:D14)</f>
+        <v>636.5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>AVERAGE(E5:E14)</f>
+        <v>1614.5</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:I16" si="3">AVERAGE(F5:F14)</f>
+        <v>636.5</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>489.9</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>586.29999999999995</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>39251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2">
+        <f>CEILING(B16 - 5*(B15),1)</f>
+        <v>9028</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:I18" si="4">CEILING(C16 - 5*(C15),1)</f>
+        <v>4479</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="4"/>
+        <v>621</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="4"/>
+        <v>1603</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="4"/>
+        <v>621</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="4"/>
+        <v>474</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="4"/>
+        <v>569</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="4"/>
+        <v>39238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2">
+        <f>FLOOR(B16+(5*B15),1)</f>
+        <v>9052</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:I19" si="5">FLOOR(C16+(5*C15),1)</f>
+        <v>4497</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="5"/>
+        <v>652</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="5"/>
+        <v>1626</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="5"/>
+        <v>652</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="5"/>
+        <v>506</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="5"/>
+        <v>604</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="5"/>
+        <v>39264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="C27" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="26"/>
+      <c r="D28" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <f>B5+C5</f>
+        <v>13527</v>
+      </c>
+      <c r="E29" s="2">
+        <f>D5+E5</f>
+        <v>2252</v>
+      </c>
+      <c r="F29" s="2">
+        <f>F5+G5</f>
+        <v>1130</v>
+      </c>
+      <c r="G29" s="2">
+        <f>H5+I5</f>
+        <v>39837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="25">
+        <f>B6+C6</f>
+        <v>13527</v>
+      </c>
+      <c r="E30" s="25">
+        <f>D6+E6</f>
+        <v>2248</v>
+      </c>
+      <c r="F30" s="25">
+        <f>F6+G6</f>
+        <v>1127</v>
+      </c>
+      <c r="G30" s="25">
+        <f>H6+I6</f>
+        <v>39837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <f>B7+C7</f>
+        <v>13524</v>
+      </c>
+      <c r="E31" s="2">
+        <f>D7+E7</f>
+        <v>2243</v>
+      </c>
+      <c r="F31" s="2">
+        <f>F7+G7</f>
+        <v>1119</v>
+      </c>
+      <c r="G31" s="2">
+        <f>H7+I7</f>
+        <v>39836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="25">
+        <f>B8+C8</f>
+        <v>13530</v>
+      </c>
+      <c r="E32" s="25">
+        <f>D8+E8</f>
+        <v>2256</v>
+      </c>
+      <c r="F32" s="25">
+        <f>F8+G8</f>
+        <v>1129</v>
+      </c>
+      <c r="G32" s="25">
+        <f>H8+I8</f>
+        <v>39839</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <f>B9+C9</f>
+        <v>13532</v>
+      </c>
+      <c r="E33" s="2">
+        <f>D9+E9</f>
+        <v>2251</v>
+      </c>
+      <c r="F33" s="2">
+        <f>F9+G9</f>
+        <v>1127</v>
+      </c>
+      <c r="G33" s="2">
+        <f>H9+I9</f>
+        <v>39826</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" s="25">
+        <f>B10+C10</f>
+        <v>13523</v>
+      </c>
+      <c r="E34" s="25">
+        <f>D10+E10</f>
+        <v>2256</v>
+      </c>
+      <c r="F34" s="25">
+        <f>F10+G10</f>
+        <v>1124</v>
+      </c>
+      <c r="G34" s="25">
+        <f>H10+I10</f>
+        <v>39839</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <f>B11+C11</f>
+        <v>13532</v>
+      </c>
+      <c r="E35" s="2">
+        <f>D11+E11</f>
+        <v>2247</v>
+      </c>
+      <c r="F35" s="2">
+        <f>F11+G11</f>
+        <v>1119</v>
+      </c>
+      <c r="G35" s="2">
+        <f>H11+I11</f>
+        <v>39841</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+      <c r="D36" s="25">
+        <f>B12+C12</f>
+        <v>13529</v>
+      </c>
+      <c r="E36" s="25">
+        <f>D12+E12</f>
+        <v>2253</v>
+      </c>
+      <c r="F36" s="25">
+        <f>F12+G12</f>
+        <v>1130</v>
+      </c>
+      <c r="G36" s="25">
+        <f>H12+I12</f>
+        <v>39840</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <f>B13+C13</f>
+        <v>13532</v>
+      </c>
+      <c r="E37" s="2">
+        <f>D13+E13</f>
+        <v>2252</v>
+      </c>
+      <c r="F37" s="2">
+        <f>F13+G13</f>
+        <v>1133</v>
+      </c>
+      <c r="G37" s="2">
+        <f>H13+I13</f>
+        <v>39839</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="D38" s="25">
+        <f>B14+C14</f>
+        <v>13527</v>
+      </c>
+      <c r="E38" s="25">
+        <f>D14+E14</f>
+        <v>2252</v>
+      </c>
+      <c r="F38" s="25">
+        <f>F14+G14</f>
+        <v>1126</v>
+      </c>
+      <c r="G38" s="25">
+        <f>H14+I14</f>
+        <v>39839</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="2">
+        <f>_xlfn.STDEV.S(D29:D38)</f>
+        <v>3.2676869155073254</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39:G39" si="6">_xlfn.STDEV.S(E29:E38)</f>
+        <v>4.0276819911981905</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="6"/>
+        <v>4.623610902506587</v>
+      </c>
+      <c r="G39" s="2">
+        <f>_xlfn.STDEV.S(G29:G38)</f>
+        <v>4.2439499421071289</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="25">
+        <f>FLOOR(AVERAGE(D29:D38),1)</f>
+        <v>13528</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" ref="E40:G40" si="7">FLOOR(AVERAGE(E29:E38),1)</f>
+        <v>2251</v>
+      </c>
+      <c r="F40" s="25">
+        <f t="shared" si="7"/>
+        <v>1126</v>
+      </c>
+      <c r="G40" s="25">
+        <f t="shared" si="7"/>
+        <v>39837</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="47"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="25">
+        <f>CEILING((D40-(5*D39)),1)</f>
+        <v>13512</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" ref="E42:G42" si="8">CEILING((E40-(5*E39)),1)</f>
+        <v>2231</v>
+      </c>
+      <c r="F42" s="25">
+        <f t="shared" si="8"/>
+        <v>1103</v>
+      </c>
+      <c r="G42" s="25">
+        <f t="shared" si="8"/>
+        <v>39816</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="2">
+        <f>FLOOR(D40+(5*D39),1)</f>
+        <v>13544</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" ref="E43:G43" si="9">FLOOR(E40+(5*E39),1)</f>
+        <v>2271</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="9"/>
+        <v>1149</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="9"/>
+        <v>39858</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="str">
+        <f>DEC2HEX(D42,4)</f>
+        <v>34C8</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" ref="E45:G45" si="10">DEC2HEX(E42,4)</f>
+        <v>08B7</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="10"/>
+        <v>044F</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="10"/>
+        <v>9B88</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="str">
+        <f>DEC2HEX(D43,4)</f>
+        <v>34E8</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" ref="E46:G46" si="11">DEC2HEX(E43,4)</f>
+        <v>08DF</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="11"/>
+        <v>047D</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="11"/>
+        <v>9BB2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C27:G27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
